--- a/hw08/CTD_version/CTD_Data.xlsx
+++ b/hw08/CTD_version/CTD_Data.xlsx
@@ -30,16 +30,10 @@
     <t>Conductivity</t>
   </si>
   <si>
-    <t>Beam Transmission</t>
-  </si>
-  <si>
     <t>Fluorescence</t>
   </si>
   <si>
     <t>Oxygen raw</t>
-  </si>
-  <si>
-    <t>PAR/Irradiance</t>
   </si>
   <si>
     <t>Salinity</t>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>Depth</t>
+  </si>
+  <si>
+    <t>Beam_Transmission</t>
+  </si>
+  <si>
+    <t>PAR_Irradiance</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:L307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -419,28 +419,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
